--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H2">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I2">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J2">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N2">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O2">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P2">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q2">
-        <v>0.1951867449148889</v>
+        <v>2.345110386317556</v>
       </c>
       <c r="R2">
-        <v>1.756680704234</v>
+        <v>21.105993476858</v>
       </c>
       <c r="S2">
-        <v>9.521041888566305E-06</v>
+        <v>0.0002176696822292057</v>
       </c>
       <c r="T2">
-        <v>1.053460397309941E-05</v>
+        <v>0.0002255063391672807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H3">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I3">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J3">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N3">
         <v>25.913119</v>
       </c>
       <c r="O3">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P3">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q3">
-        <v>0.5203296710491111</v>
+        <v>9.590485651196223</v>
       </c>
       <c r="R3">
-        <v>4.682967039442</v>
+        <v>86.314370860766</v>
       </c>
       <c r="S3">
-        <v>2.538123475588846E-05</v>
+        <v>0.0008901747125847061</v>
       </c>
       <c r="T3">
-        <v>2.808319295629254E-05</v>
+        <v>0.0009222232448655134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H4">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I4">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J4">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N4">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O4">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P4">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q4">
-        <v>0.2014401499486667</v>
+        <v>5.342591382581778</v>
       </c>
       <c r="R4">
-        <v>1.812961349538</v>
+        <v>48.083322443236</v>
       </c>
       <c r="S4">
-        <v>9.826077618829301E-06</v>
+        <v>0.0004958914408942436</v>
       </c>
       <c r="T4">
-        <v>1.087211226826034E-05</v>
+        <v>0.0005137447820716507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H5">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I5">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J5">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N5">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O5">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P5">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q5">
-        <v>0.5706138923153333</v>
+        <v>2.451290116946333</v>
       </c>
       <c r="R5">
-        <v>3.423683353892</v>
+        <v>14.707740701678</v>
       </c>
       <c r="S5">
-        <v>2.783405591041102E-05</v>
+        <v>0.0002275251279941451</v>
       </c>
       <c r="T5">
-        <v>2.053141938407757E-05</v>
+        <v>0.0001571444038724665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06023933333333334</v>
+        <v>1.110304666666667</v>
       </c>
       <c r="H6">
-        <v>0.180718</v>
+        <v>3.330914</v>
       </c>
       <c r="I6">
-        <v>9.651065048389373E-05</v>
+        <v>0.002248635597361828</v>
       </c>
       <c r="J6">
-        <v>9.65189777332922E-05</v>
+        <v>0.002251019941945068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N6">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O6">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P6">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q6">
-        <v>0.4909524742455555</v>
+        <v>4.496673943547999</v>
       </c>
       <c r="R6">
-        <v>4.41857226821</v>
+        <v>40.470065491932</v>
       </c>
       <c r="S6">
-        <v>2.394824031019866E-05</v>
+        <v>0.0004173746336595274</v>
       </c>
       <c r="T6">
-        <v>2.649764915156231E-05</v>
+        <v>0.0004324011719681571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H7">
         <v>0.174365</v>
       </c>
       <c r="I7">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J7">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N7">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O7">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P7">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q7">
-        <v>0.1883251074994444</v>
+        <v>0.1227606514338889</v>
       </c>
       <c r="R7">
-        <v>1.694925967495</v>
+        <v>1.104845862905</v>
       </c>
       <c r="S7">
-        <v>9.186337104770215E-06</v>
+        <v>1.139446234333743E-05</v>
       </c>
       <c r="T7">
-        <v>1.016426820665058E-05</v>
+        <v>1.18046916939023E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H8">
         <v>0.174365</v>
       </c>
       <c r="I8">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J8">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N8">
         <v>25.913119</v>
       </c>
       <c r="O8">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P8">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q8">
         <v>0.5020378882705555</v>
@@ -948,10 +948,10 @@
         <v>4.518340994435</v>
       </c>
       <c r="S8">
-        <v>2.448897729175009E-05</v>
+        <v>4.659841525774374E-05</v>
       </c>
       <c r="T8">
-        <v>2.709595026407966E-05</v>
+        <v>4.827607560296521E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H9">
         <v>0.174365</v>
       </c>
       <c r="I9">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J9">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N9">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O9">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P9">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q9">
-        <v>0.1943586789683334</v>
+        <v>0.2796712693344445</v>
       </c>
       <c r="R9">
-        <v>1.749228110715001</v>
+        <v>2.51704142401</v>
       </c>
       <c r="S9">
-        <v>9.480649542420629E-06</v>
+        <v>2.595867413314326E-05</v>
       </c>
       <c r="T9">
-        <v>1.048991166156783E-05</v>
+        <v>2.689325179993341E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H10">
         <v>0.174365</v>
       </c>
       <c r="I10">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J10">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N10">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O10">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P10">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q10">
-        <v>0.5505544070516667</v>
+        <v>0.1283188942258333</v>
       </c>
       <c r="R10">
-        <v>3.30332644231</v>
+        <v>0.769913365355</v>
       </c>
       <c r="S10">
-        <v>2.685557143626433E-05</v>
+        <v>1.191037022952232E-05</v>
       </c>
       <c r="T10">
-        <v>1.980965338762428E-05</v>
+        <v>8.226115709148486E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05812166666666668</v>
+        <v>0.05812166666666666</v>
       </c>
       <c r="H11">
         <v>0.174365</v>
       </c>
       <c r="I11">
-        <v>9.311789402065168E-05</v>
+        <v>0.0001177104380161106</v>
       </c>
       <c r="J11">
-        <v>9.3125928532108E-05</v>
+        <v>0.0001178352524794251</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N11">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O11">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P11">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q11">
-        <v>0.4736934238527778</v>
+        <v>0.23538961143</v>
       </c>
       <c r="R11">
-        <v>4.263240814675</v>
+        <v>2.11850650287</v>
       </c>
       <c r="S11">
-        <v>2.310635864544644E-05</v>
+        <v>2.184851605236385E-05</v>
       </c>
       <c r="T11">
-        <v>2.556614501218563E-05</v>
+        <v>2.263511767347572E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H12">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I12">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J12">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N12">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O12">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P12">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q12">
-        <v>877.3433992950318</v>
+        <v>755.6142897040539</v>
       </c>
       <c r="R12">
-        <v>7896.090593655286</v>
+        <v>6800.528607336485</v>
       </c>
       <c r="S12">
-        <v>0.04279605799557532</v>
+        <v>0.07013500229556215</v>
       </c>
       <c r="T12">
-        <v>0.04735191041797515</v>
+        <v>0.07266003907014919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H13">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I13">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J13">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N13">
         <v>25.913119</v>
       </c>
       <c r="O13">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P13">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q13">
-        <v>2338.82583856477</v>
+        <v>3090.135136293011</v>
       </c>
       <c r="R13">
-        <v>21049.43254708293</v>
+        <v>27811.2162266371</v>
       </c>
       <c r="S13">
-        <v>0.1140859169957794</v>
+        <v>0.2868217790883644</v>
       </c>
       <c r="T13">
-        <v>0.126230928140513</v>
+        <v>0.2971480857290706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H14">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I14">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J14">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N14">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O14">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P14">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q14">
-        <v>905.4517815107178</v>
+        <v>1721.427876607375</v>
       </c>
       <c r="R14">
-        <v>8149.06603359646</v>
+        <v>15492.85088946637</v>
       </c>
       <c r="S14">
-        <v>0.0441671607546898</v>
+        <v>0.1597803928837678</v>
       </c>
       <c r="T14">
-        <v>0.04886897385942904</v>
+        <v>0.1655328895642307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H15">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I15">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J15">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N15">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O15">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P15">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q15">
-        <v>2564.847998193734</v>
+        <v>789.8262919228558</v>
       </c>
       <c r="R15">
-        <v>15389.0879891624</v>
+        <v>4738.957751537135</v>
       </c>
       <c r="S15">
-        <v>0.1251110839481253</v>
+        <v>0.07331050980891426</v>
       </c>
       <c r="T15">
-        <v>0.09228651916211385</v>
+        <v>0.05063324856938393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>270.7693163333333</v>
+        <v>357.7495016666667</v>
       </c>
       <c r="H16">
-        <v>812.307949</v>
+        <v>1073.248505</v>
       </c>
       <c r="I16">
-        <v>0.4338049809716108</v>
+        <v>0.724529301314403</v>
       </c>
       <c r="J16">
-        <v>0.4338424110609195</v>
+        <v>0.7252975571923297</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N16">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O16">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P16">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q16">
-        <v>2206.77850247835</v>
+        <v>1448.86616327691</v>
       </c>
       <c r="R16">
-        <v>19861.00652230515</v>
+        <v>13039.79546949219</v>
       </c>
       <c r="S16">
-        <v>0.107644761277441</v>
+        <v>0.1344816172377943</v>
       </c>
       <c r="T16">
-        <v>0.1191040794808883</v>
+        <v>0.1393232942594953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H17">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I17">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J17">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N17">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O17">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P17">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q17">
-        <v>0.5234620381129999</v>
+        <v>3.314020116293333</v>
       </c>
       <c r="R17">
-        <v>3.140772228678</v>
+        <v>19.88412069776</v>
       </c>
       <c r="S17">
-        <v>2.553402893276074E-05</v>
+        <v>0.0003076024522442605</v>
       </c>
       <c r="T17">
-        <v>1.883483522024512E-05</v>
+        <v>0.0002124512769810509</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H18">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I18">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J18">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N18">
         <v>25.913119</v>
       </c>
       <c r="O18">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P18">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q18">
-        <v>1.395447371269</v>
+        <v>13.55290674525333</v>
       </c>
       <c r="R18">
-        <v>8.372684227614</v>
+        <v>81.31744047152</v>
       </c>
       <c r="S18">
-        <v>6.806872506089125E-05</v>
+        <v>0.0012579607858689</v>
       </c>
       <c r="T18">
-        <v>5.02099854100635E-05</v>
+        <v>0.0008688336955705163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H19">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I19">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J19">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N19">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O19">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P19">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q19">
-        <v>0.540232747341</v>
+        <v>7.549945374986668</v>
       </c>
       <c r="R19">
-        <v>3.241396484046001</v>
+        <v>45.29967224992</v>
       </c>
       <c r="S19">
-        <v>2.635208973463733E-05</v>
+        <v>0.0007007747781125875</v>
       </c>
       <c r="T19">
-        <v>1.943826683865761E-05</v>
+        <v>0.0004840029570632583</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H20">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I20">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J20">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N20">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O20">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P20">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q20">
-        <v>1.530302230191</v>
+        <v>3.46406924204</v>
       </c>
       <c r="R20">
-        <v>6.121208920763999</v>
+        <v>13.85627696816</v>
       </c>
       <c r="S20">
-        <v>7.464682933345817E-05</v>
+        <v>0.0003215297904670611</v>
       </c>
       <c r="T20">
-        <v>3.670815741382578E-05</v>
+        <v>0.0001480469657589808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.161553</v>
+        <v>1.56904</v>
       </c>
       <c r="H21">
-        <v>0.323106</v>
+        <v>3.13808</v>
       </c>
       <c r="I21">
-        <v>0.0002588273185453217</v>
+        <v>0.003177685642155218</v>
       </c>
       <c r="J21">
-        <v>0.0001725664339993421</v>
+        <v>0.002120703404356576</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N21">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O21">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P21">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q21">
-        <v>1.316662065845</v>
+        <v>6.354527271839999</v>
       </c>
       <c r="R21">
-        <v>7.899972395069999</v>
+        <v>38.12716363104</v>
       </c>
       <c r="S21">
-        <v>6.422564548357423E-05</v>
+        <v>0.000589817835462409</v>
       </c>
       <c r="T21">
-        <v>4.737518911655006E-05</v>
+        <v>0.0004073685089827701</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H22">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I22">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J22">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.240187666666666</v>
+        <v>2.112132333333333</v>
       </c>
       <c r="N22">
-        <v>9.720562999999999</v>
+        <v>6.336397</v>
       </c>
       <c r="O22">
-        <v>0.09865275843473081</v>
+        <v>0.09680078109791683</v>
       </c>
       <c r="P22">
-        <v>0.1091454159637843</v>
+        <v>0.1001796274503123</v>
       </c>
       <c r="Q22">
-        <v>1144.186984103446</v>
+        <v>281.5075199767168</v>
       </c>
       <c r="R22">
-        <v>10297.68285693101</v>
+        <v>2533.567679790451</v>
       </c>
       <c r="S22">
-        <v>0.0558124590312294</v>
+        <v>0.02612911220553789</v>
       </c>
       <c r="T22">
-        <v>0.06175397183840915</v>
+        <v>0.02706982607232091</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H23">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I23">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J23">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.637706333333332</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N23">
         <v>25.913119</v>
       </c>
       <c r="O23">
-        <v>0.2629889512569831</v>
+        <v>0.3958732636044222</v>
       </c>
       <c r="P23">
-        <v>0.2909603232008313</v>
+        <v>0.4096912815746252</v>
       </c>
       <c r="Q23">
-        <v>3050.178624152089</v>
+        <v>1151.243816407264</v>
       </c>
       <c r="R23">
-        <v>27451.60761736881</v>
+        <v>10361.19434766538</v>
       </c>
       <c r="S23">
-        <v>0.1487850953240951</v>
+        <v>0.1068567506023464</v>
       </c>
       <c r="T23">
-        <v>0.1646240059316878</v>
+        <v>0.1107038628295157</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H24">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I24">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J24">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.343997</v>
+        <v>4.811824666666667</v>
       </c>
       <c r="N24">
-        <v>10.031991</v>
+        <v>14.435474</v>
       </c>
       <c r="O24">
-        <v>0.1018134016252345</v>
+        <v>0.2205299255584317</v>
       </c>
       <c r="P24">
-        <v>0.1126422235666742</v>
+        <v>0.2282275569836723</v>
       </c>
       <c r="Q24">
-        <v>1180.844517631635</v>
+        <v>641.325738495927</v>
       </c>
       <c r="R24">
-        <v>10627.60065868471</v>
+        <v>5771.931646463343</v>
       </c>
       <c r="S24">
-        <v>0.05760058205364877</v>
+        <v>0.05952690778152393</v>
       </c>
       <c r="T24">
-        <v>0.06373244941647661</v>
+        <v>0.06167002642850672</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H25">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I25">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J25">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.472446999999999</v>
+        <v>2.2077635</v>
       </c>
       <c r="N25">
-        <v>18.944894</v>
+        <v>4.415527</v>
       </c>
       <c r="O25">
-        <v>0.2884039820564274</v>
+        <v>0.1011836369846164</v>
       </c>
       <c r="P25">
-        <v>0.2127189892210772</v>
+        <v>0.06981031173659025</v>
       </c>
       <c r="Q25">
-        <v>3344.945317985101</v>
+        <v>294.2533560855402</v>
       </c>
       <c r="R25">
-        <v>20069.67190791061</v>
+        <v>1765.520136513241</v>
       </c>
       <c r="S25">
-        <v>0.163163561651622</v>
+        <v>0.02731216188701136</v>
       </c>
       <c r="T25">
-        <v>0.1203554208287778</v>
+        <v>0.01886364568186573</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>353.1236773333333</v>
+        <v>133.2811943333333</v>
       </c>
       <c r="H26">
-        <v>1059.371032</v>
+        <v>399.843583</v>
       </c>
       <c r="I26">
-        <v>0.5657465631653393</v>
+        <v>0.2699266670080639</v>
       </c>
       <c r="J26">
-        <v>0.5657953775988157</v>
+        <v>0.2702128842088893</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.150031666666665</v>
+        <v>4.049945999999999</v>
       </c>
       <c r="N26">
-        <v>24.450095</v>
+        <v>12.149838</v>
       </c>
       <c r="O26">
-        <v>0.2481409066266244</v>
+        <v>0.185612392754613</v>
       </c>
       <c r="P26">
-        <v>0.2745330480476329</v>
+        <v>0.1920912222548</v>
       </c>
       <c r="Q26">
-        <v>2877.969152516448</v>
+        <v>539.7816398655059</v>
       </c>
       <c r="R26">
-        <v>25901.72237264804</v>
+        <v>4858.034758789554</v>
       </c>
       <c r="S26">
-        <v>0.1403848651047441</v>
+        <v>0.0501017345316444</v>
       </c>
       <c r="T26">
-        <v>0.1553295295834643</v>
+        <v>0.05190552319668029</v>
       </c>
     </row>
   </sheetData>
